--- a/slides/all_eval_results_without_original.xlsx
+++ b/slides/all_eval_results_without_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike8\Desktop\multimodal-abnormalities-detection\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EEB173-2AC1-4DD2-BBB5-36E164422BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038EECA-0AAE-41E6-9CF1-B8202D7D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7441C0D2-3E00-4CCC-AA20-241891CC6AE1}"/>
+    <workbookView xWindow="-38510" yWindow="-4760" windowWidth="38620" windowHeight="21820" tabRatio="593" xr2:uid="{7441C0D2-3E00-4CCC-AA20-241891CC6AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Evaluation" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,30 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -812,6 +790,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,8 +802,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="7" builtinId="35"/>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C899B-6880-41BB-BDA8-67BB636F6DF4}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AE64" sqref="AE64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,30 +1321,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1415,36 +1415,36 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="I9" s="63" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="I9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="47"/>
       <c r="I10" s="24" t="s">
         <v>25</v>
       </c>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B011BB-4477-4194-B85C-E6FD6BC28BC8}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A60"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,45 +2235,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
@@ -2374,29 +2374,29 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
@@ -2497,29 +2497,29 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="60" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2619,75 +2619,75 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="49" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="49" t="s">
+      <c r="E37" s="63"/>
+      <c r="F37" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="63"/>
+      <c r="H37" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="49" t="s">
+      <c r="I37" s="63"/>
+      <c r="J37" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>34</v>
       </c>
@@ -2896,49 +2896,49 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="49" t="s">
+      <c r="C48" s="63"/>
+      <c r="D48" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="49" t="s">
+      <c r="E48" s="63"/>
+      <c r="F48" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="49" t="s">
+      <c r="G48" s="63"/>
+      <c r="H48" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="49" t="s">
+      <c r="I48" s="63"/>
+      <c r="J48" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="21" t="s">
         <v>34</v>
       </c>
@@ -3147,49 +3147,49 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
     </row>
     <row r="59" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="49" t="s">
+      <c r="C59" s="63"/>
+      <c r="D59" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="49" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="49" t="s">
+      <c r="G59" s="63"/>
+      <c r="H59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="49" t="s">
+      <c r="I59" s="63"/>
+      <c r="J59" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K59" s="51"/>
+      <c r="K59" s="64"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="21" t="s">
         <v>34</v>
       </c>
@@ -3398,6 +3398,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A34:K35"/>
@@ -3414,27 +3435,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5:E5" r:id="rId1" display="AP@[IoBB= 0.50:0.95]" xr:uid="{343041A5-151D-4371-A712-5A60CFBD1834}"/>
